--- a/Spatial_data/UVic/Harrop-Archibald 2008/CJVI Miscellaneous Points/Miscellaneous CJVI Points Metadata.xlsx
+++ b/Spatial_data/UVic/Harrop-Archibald 2008/CJVI Miscellaneous Points/Miscellaneous CJVI Points Metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnk\Documents\GitHub\Github Shackelford-lab\Shackelford-lab\Spatial_data\UVic\Harrop-Archibald 2008\Miscellaneous CJVI Points\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnk\Documents\GitHub\Github Shackelford-lab\Shackelford-lab\Spatial_data\UVic\Harrop-Archibald 2008\CJVI Miscellaneous Points\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3C3913-46A2-4D40-BA7A-9225F3AC866F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703C870C-E2AD-453E-9BD5-ED1B6B16ED89}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="2235" windowWidth="17400" windowHeight="10785" xr2:uid="{6934027C-8984-4F11-9C55-B9A1F75C2751}"/>
+    <workbookView xWindow="3900" yWindow="2895" windowWidth="14610" windowHeight="11565" xr2:uid="{6934027C-8984-4F11-9C55-B9A1F75C2751}"/>
   </bookViews>
   <sheets>
     <sheet name="Lower Hobbs Creek Metadata" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Data table metadata</t>
   </si>
@@ -78,9 +78,6 @@
     <t>String</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
     <t>File name(s)</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t xml:space="preserve">Numeric identificaiton number. </t>
   </si>
   <si>
-    <t>Comment</t>
-  </si>
-  <si>
     <t>Garry Oak Points</t>
   </si>
   <si>
@@ -106,6 +100,12 @@
   </si>
   <si>
     <t xml:space="preserve">Observations for each point. </t>
+  </si>
+  <si>
+    <t>23-06-2020</t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
 </sst>
 </file>
@@ -209,13 +209,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -536,7 +536,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,27 +547,27 @@
     <col min="5" max="5" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:6" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -578,18 +578,18 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:6" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:6" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -600,62 +600,62 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:6" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:6" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:6" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
+      <c r="B9" s="3">
+        <v>2007</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -667,11 +667,11 @@
       <c r="E11" s="3"/>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="3"/>
@@ -679,8 +679,8 @@
       <c r="E12" s="3"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="1"/>
@@ -711,29 +711,29 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
